--- a/biology/Zoologie/BirdLab/BirdLab.xlsx
+++ b/biology/Zoologie/BirdLab/BirdLab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">BirdLab est une application de science participative qui s'inscrit le cadre du programme Vigie Nature du Muséum national d'histoire naturelle de Paris. Elle a été créée en partenariat avec la Ligue pour la protection des oiseaux et AgroParisTech et développée par la société Smallbang en 2014.
 Elle se présente comme un serious game, dans lequel le joueur doit indiquer les déplacements des oiseaux qu'il observe réellement sur une mangeoire installée devant lui. Le jeu n'est ouvert que durant l'hiver. L'objectif est, pour les chercheurs d'AgroParisTech, d'identifier les oiseaux qui viennent se nourrir aux mangeoires, leurs comportements, etc.
